--- a/validations/Letters_CNN/resultats.xlsx
+++ b/validations/Letters_CNN/resultats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Accuracy</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>F1-Score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -486,6 +496,12 @@
       <c r="F2" t="n">
         <v>1</v>
       </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -508,6 +524,12 @@
       <c r="F3" t="n">
         <v>0.9995238095238095</v>
       </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9952606635071091</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -530,6 +552,12 @@
       <c r="F4" t="n">
         <v>1</v>
       </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -552,6 +580,12 @@
       <c r="F5" t="n">
         <v>1</v>
       </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -574,6 +608,12 @@
       <c r="F6" t="n">
         <v>1</v>
       </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -596,6 +636,12 @@
       <c r="F7" t="n">
         <v>0.9990476190476191</v>
       </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9890109890109891</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -618,6 +664,12 @@
       <c r="F8" t="n">
         <v>1</v>
       </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -640,6 +692,12 @@
       <c r="F9" t="n">
         <v>0.9990476190476191</v>
       </c>
+      <c r="G9" t="n">
+        <v>0.9898989898989899</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.9898989898989899</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -662,6 +720,12 @@
       <c r="F10" t="n">
         <v>1</v>
       </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -684,6 +748,12 @@
       <c r="F11" t="n">
         <v>1</v>
       </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -706,6 +776,12 @@
       <c r="F12" t="n">
         <v>0.9980952380952381</v>
       </c>
+      <c r="G12" t="n">
+        <v>0.978494623655914</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.978494623655914</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -728,6 +804,12 @@
       <c r="F13" t="n">
         <v>0.9995238095238095</v>
       </c>
+      <c r="G13" t="n">
+        <v>0.9910714285714286</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.9955156950672646</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -750,6 +832,12 @@
       <c r="F14" t="n">
         <v>1</v>
       </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -772,6 +860,12 @@
       <c r="F15" t="n">
         <v>1</v>
       </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -794,6 +888,12 @@
       <c r="F16" t="n">
         <v>1</v>
       </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -816,6 +916,12 @@
       <c r="F17" t="n">
         <v>0.9985714285714286</v>
       </c>
+      <c r="G17" t="n">
+        <v>0.9831932773109243</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.9873417721518987</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -838,6 +944,12 @@
       <c r="F18" t="n">
         <v>0.9985714285714286</v>
       </c>
+      <c r="G18" t="n">
+        <v>0.9770114942528736</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9826589595375722</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -860,6 +972,12 @@
       <c r="F19" t="n">
         <v>1</v>
       </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -882,6 +1000,12 @@
       <c r="F20" t="n">
         <v>1</v>
       </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -904,6 +1028,12 @@
       <c r="F21" t="n">
         <v>1</v>
       </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -926,6 +1056,12 @@
       <c r="F22" t="n">
         <v>0.9990476190476191</v>
       </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -948,6 +1084,12 @@
       <c r="F23" t="n">
         <v>1</v>
       </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -970,6 +1112,12 @@
       <c r="F24" t="n">
         <v>1</v>
       </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -992,6 +1140,12 @@
       <c r="F25" t="n">
         <v>1</v>
       </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1014,6 +1168,12 @@
       <c r="F26" t="n">
         <v>1</v>
       </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1036,6 +1196,12 @@
       <c r="F27" t="n">
         <v>0.9990476190476191</v>
       </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.9887640449438202</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1058,6 +1224,12 @@
       <c r="F28" t="n">
         <v>0.9995238095238095</v>
       </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.9952153110047847</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1080,6 +1252,12 @@
       <c r="F29" t="n">
         <v>1</v>
       </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1102,6 +1280,12 @@
       <c r="F30" t="n">
         <v>1</v>
       </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1124,6 +1308,12 @@
       <c r="F31" t="n">
         <v>1</v>
       </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1146,6 +1336,12 @@
       <c r="F32" t="n">
         <v>1</v>
       </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1168,6 +1364,12 @@
       <c r="F33" t="n">
         <v>1</v>
       </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1190,6 +1392,12 @@
       <c r="F34" t="n">
         <v>1</v>
       </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1212,6 +1420,12 @@
       <c r="F35" t="n">
         <v>1</v>
       </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1234,6 +1448,12 @@
       <c r="F36" t="n">
         <v>1</v>
       </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1256,6 +1476,12 @@
       <c r="F37" t="n">
         <v>1</v>
       </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1278,6 +1504,12 @@
       <c r="F38" t="n">
         <v>1</v>
       </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1300,6 +1532,12 @@
       <c r="F39" t="n">
         <v>0.9995238095238095</v>
       </c>
+      <c r="G39" t="n">
+        <v>0.9918699186991869</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.9959183673469388</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1322,6 +1560,12 @@
       <c r="F40" t="n">
         <v>1</v>
       </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1344,6 +1588,12 @@
       <c r="F41" t="n">
         <v>1</v>
       </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1366,6 +1616,12 @@
       <c r="F42" t="n">
         <v>1</v>
       </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1388,6 +1644,12 @@
       <c r="F43" t="n">
         <v>1</v>
       </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1410,6 +1672,12 @@
       <c r="F44" t="n">
         <v>1</v>
       </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1432,6 +1700,12 @@
       <c r="F45" t="n">
         <v>1</v>
       </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1454,6 +1728,12 @@
       <c r="F46" t="n">
         <v>1</v>
       </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1476,6 +1756,12 @@
       <c r="F47" t="n">
         <v>1</v>
       </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1498,6 +1784,12 @@
       <c r="F48" t="n">
         <v>1</v>
       </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1520,6 +1812,12 @@
       <c r="F49" t="n">
         <v>1</v>
       </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1542,6 +1840,12 @@
       <c r="F50" t="n">
         <v>0.9995238095238095</v>
       </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.9951690821256038</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1564,6 +1868,12 @@
       <c r="F51" t="n">
         <v>1</v>
       </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1586,6 +1896,12 @@
       <c r="F52" t="n">
         <v>1</v>
       </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1608,6 +1924,12 @@
       <c r="F53" t="n">
         <v>1</v>
       </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1630,6 +1952,12 @@
       <c r="F54" t="n">
         <v>1</v>
       </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1652,6 +1980,12 @@
       <c r="F55" t="n">
         <v>1</v>
       </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1674,6 +2008,12 @@
       <c r="F56" t="n">
         <v>1</v>
       </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1696,6 +2036,12 @@
       <c r="F57" t="n">
         <v>0.9976190476190476</v>
       </c>
+      <c r="G57" t="n">
+        <v>0.9893617021276596</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.9738219895287958</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1718,6 +2064,12 @@
       <c r="F58" t="n">
         <v>0.9990476190476191</v>
       </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.9908256880733944</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1740,6 +2092,12 @@
       <c r="F59" t="n">
         <v>1</v>
       </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1762,6 +2120,12 @@
       <c r="F60" t="n">
         <v>1</v>
       </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1784,6 +2148,12 @@
       <c r="F61" t="n">
         <v>1</v>
       </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1806,6 +2176,12 @@
       <c r="F62" t="n">
         <v>1</v>
       </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1828,6 +2204,12 @@
       <c r="F63" t="n">
         <v>0.9995238095238095</v>
       </c>
+      <c r="G63" t="n">
+        <v>0.9880952380952381</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.9940119760479043</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1850,6 +2232,12 @@
       <c r="F64" t="n">
         <v>1</v>
       </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1872,6 +2260,12 @@
       <c r="F65" t="n">
         <v>1</v>
       </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1894,6 +2288,12 @@
       <c r="F66" t="n">
         <v>1</v>
       </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1916,6 +2316,12 @@
       <c r="F67" t="n">
         <v>0.9995238095238095</v>
       </c>
+      <c r="G67" t="n">
+        <v>0.9898989898989899</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.9949238578680203</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1938,6 +2344,12 @@
       <c r="F68" t="n">
         <v>1</v>
       </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1960,6 +2372,12 @@
       <c r="F69" t="n">
         <v>1</v>
       </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1982,6 +2400,12 @@
       <c r="F70" t="n">
         <v>1</v>
       </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2004,6 +2428,12 @@
       <c r="F71" t="n">
         <v>1</v>
       </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2026,6 +2456,12 @@
       <c r="F72" t="n">
         <v>0.9980952380952381</v>
       </c>
+      <c r="G72" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.9789473684210526</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2048,6 +2484,12 @@
       <c r="F73" t="n">
         <v>1</v>
       </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2070,6 +2512,12 @@
       <c r="F74" t="n">
         <v>1</v>
       </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2092,6 +2540,12 @@
       <c r="F75" t="n">
         <v>1</v>
       </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2114,6 +2568,12 @@
       <c r="F76" t="n">
         <v>1</v>
       </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2136,6 +2596,12 @@
       <c r="F77" t="n">
         <v>0.9966666666666667</v>
       </c>
+      <c r="G77" t="n">
+        <v>0.9456521739130435</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.9613259668508287</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2158,6 +2624,12 @@
       <c r="F78" t="n">
         <v>0.9995238095238095</v>
       </c>
+      <c r="G78" t="n">
+        <v>0.9912280701754386</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.9955947136563876</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2180,6 +2652,12 @@
       <c r="F79" t="n">
         <v>1</v>
       </c>
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2202,6 +2680,12 @@
       <c r="F80" t="n">
         <v>1</v>
       </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2224,6 +2708,12 @@
       <c r="F81" t="n">
         <v>1</v>
       </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2246,6 +2736,12 @@
       <c r="F82" t="n">
         <v>1</v>
       </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2268,6 +2764,12 @@
       <c r="F83" t="n">
         <v>1</v>
       </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2290,6 +2792,12 @@
       <c r="F84" t="n">
         <v>1</v>
       </c>
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2312,6 +2820,12 @@
       <c r="F85" t="n">
         <v>1</v>
       </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2334,6 +2848,12 @@
       <c r="F86" t="n">
         <v>1</v>
       </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2356,6 +2876,12 @@
       <c r="F87" t="n">
         <v>1</v>
       </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2378,6 +2904,12 @@
       <c r="F88" t="n">
         <v>1</v>
       </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2400,6 +2932,12 @@
       <c r="F89" t="n">
         <v>1</v>
       </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2422,6 +2960,12 @@
       <c r="F90" t="n">
         <v>1</v>
       </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2444,6 +2988,12 @@
       <c r="F91" t="n">
         <v>1</v>
       </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2466,6 +3016,12 @@
       <c r="F92" t="n">
         <v>1</v>
       </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2488,6 +3044,12 @@
       <c r="F93" t="n">
         <v>1</v>
       </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2510,6 +3072,12 @@
       <c r="F94" t="n">
         <v>1</v>
       </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2532,6 +3100,12 @@
       <c r="F95" t="n">
         <v>0.9995238095238095</v>
       </c>
+      <c r="G95" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.9949748743718593</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2554,6 +3128,12 @@
       <c r="F96" t="n">
         <v>1</v>
       </c>
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2576,6 +3156,12 @@
       <c r="F97" t="n">
         <v>1</v>
       </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2598,6 +3184,12 @@
       <c r="F98" t="n">
         <v>1</v>
       </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2620,6 +3212,12 @@
       <c r="F99" t="n">
         <v>1</v>
       </c>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2642,6 +3240,12 @@
       <c r="F100" t="n">
         <v>1</v>
       </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2664,6 +3268,12 @@
       <c r="F101" t="n">
         <v>1</v>
       </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2686,6 +3296,12 @@
       <c r="F102" t="n">
         <v>0.9990476190476191</v>
       </c>
+      <c r="G102" t="n">
+        <v>0.9795918367346939</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.9896907216494846</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2708,6 +3324,12 @@
       <c r="F103" t="n">
         <v>1</v>
       </c>
+      <c r="G103" t="n">
+        <v>1</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2730,6 +3352,12 @@
       <c r="F104" t="n">
         <v>0.9995238095238095</v>
       </c>
+      <c r="G104" t="n">
+        <v>1</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.9948186528497409</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2752,6 +3380,12 @@
       <c r="F105" t="n">
         <v>1</v>
       </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2772,6 +3406,12 @@
         <v>2001</v>
       </c>
       <c r="F106" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H106" t="n">
         <v>1</v>
       </c>
     </row>
